--- a/Lab02/Inf735-Lab02_DimPlageAge.xlsx
+++ b/Lab02/Inf735-Lab02_DimPlageAge.xlsx
@@ -483,10 +483,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
